--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3916.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3916.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.415203134238583</v>
+        <v>2.043711185455322</v>
       </c>
       <c r="B1">
-        <v>1.812804990483149</v>
+        <v>2.084349393844604</v>
       </c>
       <c r="C1">
-        <v>2.7167086907233</v>
+        <v>2.593115568161011</v>
       </c>
       <c r="D1">
-        <v>7.797374223253726</v>
+        <v>2.265393733978271</v>
       </c>
       <c r="E1">
-        <v>2.306101987791408</v>
+        <v>2.004603624343872</v>
       </c>
     </row>
   </sheetData>
